--- a/target/test-classes/beauty.xlsx
+++ b/target/test-classes/beauty.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -167,6 +167,24 @@
   </si>
   <si>
     <t>CA-MHWV0NDS</t>
+  </si>
+  <si>
+    <t>CA-Z7IS16T6</t>
+  </si>
+  <si>
+    <t>CA-CLGTIMIJ</t>
+  </si>
+  <si>
+    <t>CA-3D34ZZJS</t>
+  </si>
+  <si>
+    <t>CA-LFOR8SJ8</t>
+  </si>
+  <si>
+    <t>CA-IWPX7192</t>
+  </si>
+  <si>
+    <t>CA-A2735JP7</t>
   </si>
 </sst>
 </file>
@@ -591,7 +609,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>

--- a/target/test-classes/beauty.xlsx
+++ b/target/test-classes/beauty.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>CA-A2735JP7</t>
+  </si>
+  <si>
+    <t>CA-CCPDYWRO</t>
+  </si>
+  <si>
+    <t>CA-2HXZTBAY</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>

--- a/target/test-classes/beauty.xlsx
+++ b/target/test-classes/beauty.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>CA-2HXZTBAY</t>
+  </si>
+  <si>
+    <t>CA-NJOGR5MY</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>

--- a/target/test-classes/beauty.xlsx
+++ b/target/test-classes/beauty.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -194,6 +194,24 @@
   </si>
   <si>
     <t>CA-NJOGR5MY</t>
+  </si>
+  <si>
+    <t>CA-O43HL09K</t>
+  </si>
+  <si>
+    <t>CA-01N0BFJB</t>
+  </si>
+  <si>
+    <t>CA-RFGBDRTG</t>
+  </si>
+  <si>
+    <t>CA-XSOOD1UT</t>
+  </si>
+  <si>
+    <t>CA-BED62GDN</t>
+  </si>
+  <si>
+    <t>CA-2AFQLZ7F</t>
   </si>
 </sst>
 </file>
@@ -618,7 +636,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>

--- a/target/test-classes/beauty.xlsx
+++ b/target/test-classes/beauty.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -212,6 +212,99 @@
   </si>
   <si>
     <t>CA-2AFQLZ7F</t>
+  </si>
+  <si>
+    <t>CA-K36AMQX1</t>
+  </si>
+  <si>
+    <t>CA-PGSDC3WC</t>
+  </si>
+  <si>
+    <t>CA-V3XQ4EBI</t>
+  </si>
+  <si>
+    <t>CA-V72H43KS</t>
+  </si>
+  <si>
+    <t>CA-8F1923LB</t>
+  </si>
+  <si>
+    <t>CA-CW2GNRUF</t>
+  </si>
+  <si>
+    <t>CA-1B1201F7</t>
+  </si>
+  <si>
+    <t>CA-MVHO71ZW</t>
+  </si>
+  <si>
+    <t>CA-LPEPXZJ0</t>
+  </si>
+  <si>
+    <t>CA-3WA0H84Y</t>
+  </si>
+  <si>
+    <t>CA-10XHLWCU</t>
+  </si>
+  <si>
+    <t>CA-IZ7DSXTJ</t>
+  </si>
+  <si>
+    <t>CA-HPIL353H</t>
+  </si>
+  <si>
+    <t>CA-2VT3KS1U</t>
+  </si>
+  <si>
+    <t>CA-7WWF3F8L</t>
+  </si>
+  <si>
+    <t>CA-Z4TQ6H9B</t>
+  </si>
+  <si>
+    <t>CA-H08XVD8S</t>
+  </si>
+  <si>
+    <t>CA-SYOI4SFE</t>
+  </si>
+  <si>
+    <t>CA-PUKIMOUJ</t>
+  </si>
+  <si>
+    <t>CA-CSQ7K1IJ</t>
+  </si>
+  <si>
+    <t>CA-RJJ9RRRY</t>
+  </si>
+  <si>
+    <t>CA-SB8XI1R0</t>
+  </si>
+  <si>
+    <t>CA-SEX327BM</t>
+  </si>
+  <si>
+    <t>CA-NKUVI3R1</t>
+  </si>
+  <si>
+    <t>CA-5B7KRAU0</t>
+  </si>
+  <si>
+    <t>CA-24MZ2R3X</t>
+  </si>
+  <si>
+    <t>CA-BB4YI57X</t>
+  </si>
+  <si>
+    <t>CA-QZW8TK5S</t>
+  </si>
+  <si>
+    <t>CA-KQGXAHZ5</t>
+  </si>
+  <si>
+    <t>CA-2FOUN38P</t>
+  </si>
+  <si>
+    <t>CA-DL9SEIEZ</t>
   </si>
 </sst>
 </file>
@@ -636,7 +729,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>

--- a/target/test-classes/beauty.xlsx
+++ b/target/test-classes/beauty.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -305,6 +305,21 @@
   </si>
   <si>
     <t>CA-DL9SEIEZ</t>
+  </si>
+  <si>
+    <t>CA-7QX1CIST</t>
+  </si>
+  <si>
+    <t>CA-7REDN9KS</t>
+  </si>
+  <si>
+    <t>CA-UFN14XHY</t>
+  </si>
+  <si>
+    <t>CA-9RL3N43P</t>
+  </si>
+  <si>
+    <t>CA-MWQYTQLX</t>
   </si>
 </sst>
 </file>
@@ -729,7 +744,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>

--- a/target/test-classes/beauty.xlsx
+++ b/target/test-classes/beauty.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -320,6 +320,27 @@
   </si>
   <si>
     <t>CA-MWQYTQLX</t>
+  </si>
+  <si>
+    <t>CA-H95NNREE</t>
+  </si>
+  <si>
+    <t>CA-XFKS6ZLT</t>
+  </si>
+  <si>
+    <t>CA-4VPZPMN0</t>
+  </si>
+  <si>
+    <t>CA-V43PXR15</t>
+  </si>
+  <si>
+    <t>CA-IEF6QSFN</t>
+  </si>
+  <si>
+    <t>CA-JRLBA372</t>
+  </si>
+  <si>
+    <t>CA-XGYTNHX3</t>
   </si>
 </sst>
 </file>
@@ -744,7 +765,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
